--- a/src/main/resources/体检中心前端接口文档.xlsx
+++ b/src/main/resources/体检中心前端接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Resource\IdeaWrokespace\medical-test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9710AB-9AD1-45C1-ABA3-38263E9D0D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA3027-70E4-4ED9-88F6-ACD7C0F24FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>登录注册接口</t>
   </si>
@@ -94,9 +94,29 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>接口模块</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口URL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（红色表示必须，黑色表示可有可无）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值（JSON数据）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -107,7 +127,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -118,7 +138,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -129,7 +149,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -140,7 +160,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -151,7 +171,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -162,35 +182,59 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>表示登录时间过长，身份失效即重新登陆的意思（使用得地方不多），data:{}表示返回得下层Json数据，</t>
+      <t xml:space="preserve">表示登录时间过长，身份失效即重新登陆的意思（使用得地方不多），data:{}表示返回得下层Json数据，其中图片信息通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器地址+/service/rest/tk.File/图片id（即showImg，其中ShowImg是一个32位的字符串）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>接口模块</t>
+    <t>数据接口</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>接口名称</t>
+    <t>获取所有套餐列表</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>接口URL</t>
+    <t>/service/rest/service.NoLoginService/collection/getAllMedicalItems</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>参数（红色表示必须，黑色表示可有可无）</t>
+    <t>sorter：排序字段
+range：页码</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>返回值（JSON数据）</t>
+    <t>{code:0,message:"获取体检套餐信息成功"，data:{}}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -301,22 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
@@ -327,6 +355,22 @@
     <font>
       <sz val="18"/>
       <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -510,9 +554,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,24 +650,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,24 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -983,72 +1027,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="56" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1057,23 +1101,23 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1127,7 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1093,1007 +1137,1017 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="36"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="35"/>
     </row>
     <row r="70" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="36"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="36"/>
+      <c r="E72" s="35"/>
     </row>
     <row r="73" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="36"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="44"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="44"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="45"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="46"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="46"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="46"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="46"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="46"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="46"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="46"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="46"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="46"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="46"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="46"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="47"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="48"/>
-      <c r="B95" s="15"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="49"/>
-      <c r="B96" s="15"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="49"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="13"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="49"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="14"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="49"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="14"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="49"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="2"/>
       <c r="D100" s="7"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="49"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="2"/>
       <c r="D101" s="7"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="49"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="49"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="49"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="18"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="31"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="49"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="12"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="31"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="49"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="24"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="31"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="49"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="31"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="49"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="14"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="31"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="13"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="49"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="12"/>
       <c r="D109" s="7"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="49"/>
-      <c r="B110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="31"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="12"/>
+      <c r="D110" s="13"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="49"/>
-      <c r="B111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="31"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="12"/>
+      <c r="D111" s="13"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="49"/>
-      <c r="B112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="31"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="12"/>
+      <c r="D112" s="13"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="50"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="12"/>
       <c r="D113" s="7"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="48"/>
-      <c r="B114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="31"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="12"/>
+      <c r="D114" s="13"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="49"/>
-      <c r="B115" s="13"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="49"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="25"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="49"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="25"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="49"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="22"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="49"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="2"/>
       <c r="D119" s="7"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="49"/>
-      <c r="B120" s="13"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="2"/>
       <c r="D120" s="7"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="49"/>
-      <c r="B121" s="13"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="2"/>
       <c r="D121" s="7"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="49"/>
-      <c r="B122" s="13"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="11"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="49"/>
-      <c r="B123" s="13"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="49"/>
-      <c r="B124" s="13"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="2"/>
       <c r="D124" s="7"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="49"/>
-      <c r="B125" s="13"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="14"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="50"/>
-      <c r="B126" s="13"/>
+      <c r="A126" s="56"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="51"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="57"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="14"/>
+      <c r="D127" s="13"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="51"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="57"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="14"/>
+      <c r="D128" s="13"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="51"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="14"/>
+      <c r="D129" s="13"/>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="51"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="57"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="14"/>
+      <c r="D130" s="13"/>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="51"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="57"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="14"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="51"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="57"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="14"/>
+      <c r="D132" s="13"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="51"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="2"/>
       <c r="D133" s="7"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="51"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="57"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="14"/>
+      <c r="D134" s="13"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="51"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="14"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="51"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="57"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="14"/>
+      <c r="D136" s="13"/>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="51"/>
-      <c r="B137" s="13"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="14"/>
+      <c r="D137" s="13"/>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="51"/>
-      <c r="B138" s="13"/>
+      <c r="A138" s="57"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="14"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="51"/>
-      <c r="B139" s="13"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="14"/>
+      <c r="D139" s="13"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="51"/>
-      <c r="B140" s="13"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="14"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="51"/>
-      <c r="B141" s="13"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="14"/>
+      <c r="D141" s="13"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="51"/>
-      <c r="B142" s="13"/>
+      <c r="A142" s="57"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="14"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="51"/>
-      <c r="B143" s="13"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="14"/>
+      <c r="D143" s="13"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="51"/>
-      <c r="B144" s="13"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="42"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="14"/>
+      <c r="D145" s="13"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="43"/>
-      <c r="B146" s="28"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="43"/>
-      <c r="B147" s="28"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="43"/>
-      <c r="B148" s="28"/>
+      <c r="A148" s="53"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="43"/>
-      <c r="B149" s="28"/>
+      <c r="A149" s="53"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -2102,17 +2156,17 @@
     <row r="151" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A30"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A46:A74"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A81:A94"/>
     <mergeCell ref="A95:A113"/>
     <mergeCell ref="A114:A126"/>
     <mergeCell ref="A127:A144"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A30"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A46:A74"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/体检中心前端接口文档.xlsx
+++ b/src/main/resources/体检中心前端接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Resource\IdeaWrokespace\medical-test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA3027-70E4-4ED9-88F6-ACD7C0F24FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035AB86-A89A-4FCB-B9DA-CC8D0E681E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="915" windowWidth="19755" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>登录注册接口</t>
   </si>
@@ -235,6 +235,23 @@
   </si>
   <si>
     <t>{code:0,message:"获取体检套餐信息成功"，data:{}}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建预约记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/service/rest/service.LoginService/collection/createReservationRecord</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicalId:套餐id
+reservationTime：预约时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code:0,message:"预约成功"}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -662,6 +679,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,36 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1011,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1044,18 +1061,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1087,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1102,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1118,7 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
@@ -1117,7 +1134,7 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1144,7 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1155,10 +1172,18 @@
     </row>
     <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
@@ -1301,350 +1326,350 @@
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="51"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="51"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
       <c r="D38" s="10"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="51"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="51"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="51"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="51"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="51"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="51"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="51"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="11"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="11"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="51"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="11"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="51"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="51"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="51"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="51"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="51"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="51"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="51"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="51"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="51"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="51"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="51"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="51"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="51"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="51"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="51"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="36"/>
       <c r="C69" s="35"/>
       <c r="D69" s="25"/>
       <c r="E69" s="35"/>
     </row>
     <row r="70" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="51"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="51"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="51"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="26"/>
       <c r="C72" s="35"/>
       <c r="D72" s="7"/>
       <c r="E72" s="35"/>
     </row>
     <row r="73" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="51"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="36"/>
       <c r="C73" s="35"/>
       <c r="D73" s="25"/>
       <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="51"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="12"/>
       <c r="C74" s="24"/>
       <c r="D74" s="13"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="51"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="51"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="51"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="51"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="51"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="51"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -1749,70 +1774,70 @@
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="54"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="14"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="55"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="14"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="15"/>
       <c r="C97" s="2"/>
       <c r="D97" s="13"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="55"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="15"/>
       <c r="C98" s="2"/>
       <c r="D98" s="13"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="55"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="15"/>
       <c r="C99" s="2"/>
       <c r="D99" s="13"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="55"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="15"/>
       <c r="C100" s="2"/>
       <c r="D100" s="7"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="15"/>
       <c r="C101" s="2"/>
       <c r="D101" s="7"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="55"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="15"/>
       <c r="C102" s="2"/>
       <c r="D102" s="13"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
       <c r="D103" s="18"/>
       <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="55"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="12"/>
       <c r="C104" s="17"/>
       <c r="D104" s="7"/>
@@ -1822,7 +1847,7 @@
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="12"/>
       <c r="D105" s="7"/>
       <c r="E105" s="28"/>
@@ -1831,7 +1856,7 @@
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="55"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="12"/>
       <c r="C106" s="24"/>
       <c r="D106" s="7"/>
@@ -1841,7 +1866,7 @@
       <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="25"/>
@@ -1851,7 +1876,7 @@
       <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="55"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="13"/>
@@ -1860,7 +1885,7 @@
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="12"/>
       <c r="D109" s="7"/>
       <c r="F109" s="31"/>
@@ -1868,7 +1893,7 @@
       <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="55"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="12"/>
       <c r="D110" s="13"/>
       <c r="F110" s="31"/>
@@ -1876,7 +1901,7 @@
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="12"/>
       <c r="D111" s="13"/>
       <c r="F111" s="31"/>
@@ -1884,7 +1909,7 @@
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="55"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="12"/>
       <c r="D112" s="13"/>
       <c r="F112" s="31"/>
@@ -1892,7 +1917,7 @@
       <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="56"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="12"/>
       <c r="D113" s="7"/>
       <c r="F113" s="31"/>
@@ -1900,7 +1925,7 @@
       <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="12"/>
       <c r="D114" s="13"/>
       <c r="F114" s="31"/>
@@ -1908,245 +1933,245 @@
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="55"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="12"/>
       <c r="C115" s="2"/>
       <c r="D115" s="19"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="55"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="12"/>
       <c r="C116" s="24"/>
       <c r="D116" s="40"/>
       <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="55"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="40"/>
       <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="55"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="22"/>
       <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="12"/>
       <c r="C119" s="2"/>
       <c r="D119" s="7"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="55"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="12"/>
       <c r="C120" s="2"/>
       <c r="D120" s="7"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="55"/>
+      <c r="A121" s="52"/>
       <c r="B121" s="12"/>
       <c r="C121" s="2"/>
       <c r="D121" s="7"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="55"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="12"/>
       <c r="C122" s="2"/>
       <c r="D122" s="11"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="55"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="12"/>
       <c r="C123" s="2"/>
       <c r="D123" s="11"/>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="55"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="12"/>
       <c r="C124" s="2"/>
       <c r="D124" s="7"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="55"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="12"/>
       <c r="C125" s="2"/>
       <c r="D125" s="13"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="56"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="12"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="57"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="15"/>
       <c r="C127" s="2"/>
       <c r="D127" s="13"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="57"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="15"/>
       <c r="C128" s="2"/>
       <c r="D128" s="13"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="57"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="15"/>
       <c r="C129" s="2"/>
       <c r="D129" s="13"/>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="57"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="15"/>
       <c r="C130" s="2"/>
       <c r="D130" s="13"/>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="57"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="15"/>
       <c r="C131" s="2"/>
       <c r="D131" s="13"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="57"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="15"/>
       <c r="C132" s="2"/>
       <c r="D132" s="13"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="57"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="15"/>
       <c r="C133" s="2"/>
       <c r="D133" s="7"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="57"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="15"/>
       <c r="C134" s="2"/>
       <c r="D134" s="13"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="57"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="15"/>
       <c r="C135" s="2"/>
       <c r="D135" s="13"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="57"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="15"/>
       <c r="C136" s="2"/>
       <c r="D136" s="13"/>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="57"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="12"/>
       <c r="C137" s="2"/>
       <c r="D137" s="13"/>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="57"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="12"/>
       <c r="C138" s="2"/>
       <c r="D138" s="13"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="57"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="12"/>
       <c r="C139" s="2"/>
       <c r="D139" s="13"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="57"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="12"/>
       <c r="C140" s="2"/>
       <c r="D140" s="13"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="57"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="12"/>
       <c r="C141" s="2"/>
       <c r="D141" s="13"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="57"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="12"/>
       <c r="C142" s="2"/>
       <c r="D142" s="13"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="57"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="12"/>
       <c r="C143" s="2"/>
       <c r="D143" s="13"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="57"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="12"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="52"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="27"/>
       <c r="C145" s="6"/>
       <c r="D145" s="13"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="53"/>
+      <c r="A146" s="46"/>
       <c r="B146" s="27"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="53"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="27"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="53"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="27"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="53"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="27"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2156,17 +2181,17 @@
     <row r="151" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A30"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A46:A74"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A81:A94"/>
     <mergeCell ref="A95:A113"/>
     <mergeCell ref="A114:A126"/>
     <mergeCell ref="A127:A144"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A30"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A46:A74"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/体检中心前端接口文档.xlsx
+++ b/src/main/resources/体检中心前端接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Resource\IdeaWrokespace\medical-test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035AB86-A89A-4FCB-B9DA-CC8D0E681E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC4580-1FBD-4917-A53D-1C725CC7D5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="915" windowWidth="19755" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>登录注册接口</t>
   </si>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>{code:0,message:"预约成功"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务接口</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,20 +665,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,18 +701,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,14 +713,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1028,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1044,42 +1051,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -1087,8 +1094,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -1102,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -1118,7 +1125,7 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
@@ -1134,8 +1141,8 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
@@ -1144,8 +1151,8 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
@@ -1157,7 +1164,7 @@
       <c r="A9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1171,603 +1178,601 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A10" s="48"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6"/>
       <c r="D11" s="25"/>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="33"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="6"/>
       <c r="D29" s="25"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
       <c r="D38" s="10"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="11"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="11"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="11"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="47"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="47"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="36"/>
       <c r="C69" s="35"/>
       <c r="D69" s="25"/>
       <c r="E69" s="35"/>
     </row>
     <row r="70" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="47"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="47"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="26"/>
       <c r="C72" s="35"/>
       <c r="D72" s="7"/>
       <c r="E72" s="35"/>
     </row>
     <row r="73" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="47"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="36"/>
       <c r="C73" s="35"/>
       <c r="D73" s="25"/>
       <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="47"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="12"/>
       <c r="C74" s="24"/>
       <c r="D74" s="13"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="47"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="47"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="47"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="47"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="48"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="49"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="49"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="49"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="49"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="49"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="49"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="49"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="49"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="49"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="49"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="49"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="49"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="50"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
@@ -1943,14 +1948,14 @@
       <c r="A116" s="52"/>
       <c r="B116" s="12"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="40"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="40"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2143,35 +2148,35 @@
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="45"/>
+      <c r="A145" s="49"/>
       <c r="B145" s="27"/>
       <c r="C145" s="6"/>
       <c r="D145" s="13"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="46"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="27"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="46"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="27"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="46"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="27"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="46"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="27"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2180,18 +2185,19 @@
     <row r="150" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A30"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A46:A74"/>
+  <mergeCells count="12">
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A81:A94"/>
     <mergeCell ref="A95:A113"/>
     <mergeCell ref="A114:A126"/>
     <mergeCell ref="A127:A144"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A46:A74"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A23"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/体检中心前端接口文档.xlsx
+++ b/src/main/resources/体检中心前端接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Resource\IdeaWrokespace\medical-test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC4580-1FBD-4917-A53D-1C725CC7D5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C5543-A390-4D09-BE9E-4F26A80F6051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>登录注册接口</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>上传图片</t>
-  </si>
-  <si>
-    <t>/service/rest/service.NoLoginService/collection/register</t>
   </si>
   <si>
     <t>phone:电话号码
@@ -258,12 +255,57 @@
     <t>业务接口</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>/service/rest/service.NoLoginService/collection/register</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人预约记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/service/rest/service.LoginService/collection/queryReservationRecord</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code:0,message:"获取成功"，data:{}}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/service/rest/service.LoginService/collection/getPersonalInfo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/service/rest/service.LoginService/collection/updateUserInfo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nickname：用户昵称
+pictrueId：用户头像（一个32位字符串）
+card：身份证号码
+gender：性别
+phone：电话号码
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code:0,message:"资料个人信息成功"，data:{}}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +434,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -547,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +732,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,15 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,17 +783,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1033,17 +1100,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="65.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.625" style="49" customWidth="1"/>
     <col min="4" max="4" width="55.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="42.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -1052,72 +1119,72 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="41" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -1125,23 +1192,23 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>17</v>
-      </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1218,7 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
@@ -1161,1043 +1228,1088 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="43"/>
       <c r="C11" s="6"/>
       <c r="D11" s="25"/>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="43"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="43"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="43"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="43"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="43"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="43"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="43"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="45"/>
     </row>
     <row r="27" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="35"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="38"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="25"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="5"/>
+    <row r="30" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="45"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="B31" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="46"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="48"/>
+    <row r="33" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="54"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="54"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="54"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="54"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="54"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="48"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="54"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="48"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="48"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="48"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="48"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="48"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="48"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
-      <c r="B46" s="5"/>
+    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="54"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
+    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="54"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="54"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
+    <row r="49" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="54"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="11"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="48"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="11"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="48"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="11"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="48"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="48"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="48"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="48"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="48"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="48"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="35"/>
-    </row>
-    <row r="70" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="48"/>
+    <row r="69" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="54"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="54"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="48"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6"/>
+    <row r="71" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="54"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="35"/>
     </row>
     <row r="72" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="48"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="35"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="35"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="48"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="35"/>
-    </row>
-    <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="48"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="48"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="54"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="35"/>
+    </row>
+    <row r="75" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="54"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="35"/>
+    </row>
+    <row r="76" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="54"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="48"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="48"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="48"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="45"/>
+    <row r="81" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="54"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="46"/>
+    <row r="82" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="54"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="46"/>
+    <row r="84" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="56"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="46"/>
+    <row r="85" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="56"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="46"/>
+    <row r="86" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="56"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="46"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="46"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="46"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="46"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="46"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="46"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="46"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="47"/>
+    <row r="94" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="56"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="51"/>
-      <c r="B95" s="14"/>
+    <row r="95" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="56"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="52"/>
-      <c r="B96" s="14"/>
+    <row r="96" spans="1:5" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="57"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="2"/>
+    <row r="97" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="58"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="52"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="52"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="13"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="52"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="13"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="52"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="13"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="52"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="30"/>
-    </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="12"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="30"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="59"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="59"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="52"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="24"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="29"/>
+      <c r="E106" s="28"/>
       <c r="F106" s="31"/>
       <c r="G106" s="32"/>
       <c r="H106" s="30"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="29"/>
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="59"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="28"/>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="13"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="31"/>
       <c r="G108" s="32"/>
       <c r="H108" s="30"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="12"/>
-      <c r="D109" s="7"/>
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="59"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="31"/>
       <c r="G109" s="32"/>
       <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="13"/>
       <c r="F110" s="31"/>
       <c r="G110" s="32"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="12"/>
-      <c r="D111" s="13"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
       <c r="F111" s="31"/>
       <c r="G111" s="32"/>
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="52"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="12"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="13"/>
       <c r="F112" s="31"/>
       <c r="G112" s="32"/>
       <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="53"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="12"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="13"/>
       <c r="F113" s="31"/>
       <c r="G113" s="32"/>
       <c r="H113" s="30"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="51"/>
+    <row r="114" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="59"/>
       <c r="B114" s="12"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="13"/>
       <c r="F114" s="31"/>
       <c r="G114" s="32"/>
       <c r="H114" s="30"/>
     </row>
-    <row r="115" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="52"/>
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="60"/>
       <c r="B115" s="12"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="52"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="30"/>
+    </row>
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="58"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="24"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="13"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="52"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="24"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="52"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="21"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="24"/>
     </row>
     <row r="119" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="52"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="52"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="21"/>
     </row>
     <row r="121" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="52"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="12"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="7"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="52"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="11"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="52"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="12"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="11"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="52"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="12"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="7"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="52"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="12"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="13"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="53"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="12"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="54"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="6"/>
       <c r="D127" s="13"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="13"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="13"/>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="54"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="13"/>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="54"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="2"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="13"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="54"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="13"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="54"/>
+    <row r="133" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="61"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="54"/>
+    <row r="134" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="61"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="6"/>
       <c r="D134" s="13"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="54"/>
+    <row r="135" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="61"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="13"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="54"/>
+      <c r="A136" s="61"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="13"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="54"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="2"/>
+    <row r="137" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="61"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="6"/>
       <c r="D137" s="13"/>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="54"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="2"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="13"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="54"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="12"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="6"/>
       <c r="D139" s="13"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="54"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="12"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="6"/>
       <c r="D140" s="13"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="54"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="12"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="6"/>
       <c r="D141" s="13"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="54"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="12"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="6"/>
       <c r="D142" s="13"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="54"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="12"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="6"/>
       <c r="D143" s="13"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="54"/>
+    <row r="144" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="61"/>
       <c r="B144" s="12"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="13"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="49"/>
-      <c r="B145" s="27"/>
+    <row r="145" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="61"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="6"/>
       <c r="D145" s="13"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="50"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="2"/>
+    <row r="146" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="61"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="50"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="27"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="50"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="27"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="50"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="27"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="53"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="53"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="A95:A113"/>
-    <mergeCell ref="A114:A126"/>
-    <mergeCell ref="A127:A144"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A46:A74"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A48:A76"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A96"/>
+    <mergeCell ref="A97:A115"/>
+    <mergeCell ref="A116:A128"/>
+    <mergeCell ref="A129:A146"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
